--- a/Team-Data/2007-08/3-1-2007-08.xlsx
+++ b/Team-Data/2007-08/3-1-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -777,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -795,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>25</v>
@@ -810,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -971,7 +1038,7 @@
         <v>27</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>23</v>
@@ -980,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -989,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1180,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>15</v>
@@ -1350,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1654,25 +1721,25 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
         <v>4</v>
       </c>
-      <c r="AE7" t="n">
-        <v>5</v>
-      </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1857,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J9" t="n">
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,34 +2115,34 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP9" t="n">
         <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2084,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2597,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2609,19 +2676,19 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
         <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
         <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21.8</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21.9</v>
-      </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.1</v>
+        <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2776,7 +2843,7 @@
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
         <v>28</v>
@@ -2797,7 +2864,7 @@
         <v>28</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>22</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.733</v>
+        <v>0.736</v>
       </c>
       <c r="R15" t="n">
         <v>10.2</v>
@@ -3080,10 +3147,10 @@
         <v>31.2</v>
       </c>
       <c r="T15" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V15" t="n">
         <v>15.9</v>
@@ -3095,22 +3162,22 @@
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3125,10 +3192,10 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3155,10 +3222,10 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>26</v>
@@ -3173,10 +3240,10 @@
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>8</v>
@@ -3185,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3395,7 @@
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3349,7 +3416,7 @@
         <v>17</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
         <v>80.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.746</v>
@@ -3441,16 +3508,16 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3459,13 +3526,13 @@
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z17" t="n">
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
         <v>95.40000000000001</v>
@@ -3474,13 +3541,13 @@
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
@@ -3492,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3504,19 +3571,19 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3710,7 +3777,7 @@
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>8</v>
@@ -3880,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>4</v>
@@ -4071,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,7 +4209,7 @@
         <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4151,16 +4218,16 @@
         <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N21" t="n">
         <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q21" t="n">
         <v>0.727</v>
@@ -4169,16 +4236,16 @@
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
         <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
         <v>6.2</v>
@@ -4187,22 +4254,22 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB21" t="n">
         <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.1</v>
+        <v>-5.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,16 +4335,16 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
         <v>9.300000000000001</v>
@@ -4339,22 +4406,22 @@
         <v>0.376</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4366,28 +4433,28 @@
         <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
         <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,13 +4493,13 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
@@ -4441,13 +4508,13 @@
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
@@ -4518,7 +4585,7 @@
         <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.314</v>
+        <v>0.312</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
@@ -4527,7 +4594,7 @@
         <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.703</v>
+        <v>0.704</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
@@ -4542,7 +4609,7 @@
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
@@ -4560,10 +4627,10 @@
         <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4575,19 +4642,19 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>17</v>
       </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4614,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4626,19 +4693,19 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>39</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>0.661</v>
+        <v>0.672</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>41.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
         <v>0.493</v>
@@ -4703,19 +4770,19 @@
         <v>0.384</v>
       </c>
       <c r="O24" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
         <v>40.9</v>
@@ -4724,16 +4791,16 @@
         <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
         <v>6.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19.5</v>
@@ -4742,16 +4809,16 @@
         <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="n">
         <v>4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4787,13 +4854,13 @@
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
@@ -4811,10 +4878,10 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4960,13 +5027,13 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>12</v>
@@ -4996,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.702</v>
+        <v>0.696</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,7 +5301,7 @@
         <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5246,55 +5313,55 @@
         <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O27" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V27" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB27" t="n">
         <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5333,19 +5400,19 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5354,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
@@ -5369,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>28</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AA30" t="n">
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5852,16 +5919,16 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6067,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,13 +6152,13 @@
         <v>16</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2007-08</t>
+          <t>2008-03-01</t>
         </is>
       </c>
     </row>
